--- a/biology/Médecine/Caisson_hyperbare/Caisson_hyperbare.xlsx
+++ b/biology/Médecine/Caisson_hyperbare/Caisson_hyperbare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caisson hyperbare, également appelé caisson de décompression ou chambre hyperbare, est une installation médicotechnique étanche au sein de laquelle un ou plusieurs patients peuvent être exposés à une pression supérieure à la pression atmosphérique, ce qui permet principalement d'accroître l'oxygénation des tissus. Lors du traitement hyperbare, un médicament, le plus souvent un gaz thérapeutique comme l'air médical, l'oxygène médical, ou un mélange de gaz médicinaux (héliox, nitrox...), peut également être administré via un masque à oxygène. Le traitement est généralement supervisé depuis l'extérieur de l'enceinte hyperbare par un opérateur hyperbare selon un protocole établi à l'avance.
 Le caisson hyperbare est souvent utilisé pour traiter les intoxications aux oxycarbonées comme le monoxyde de carbone (CO) résultant d'une combustion incomplète de matière organique, et provoquant des troubles neurologiques.
@@ -512,11 +524,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caissons hyperbares sont utilisés en médecine, dans différents cas :
-en situation d'urgence : accident de plongée sous-marine (ou maladie de décompression), intoxication au monoxyde de carbone (CO)[1], embolie gazeuse ; syndrome d'écrasement (crush injury) ; il peut aussi être utilisé pour traiter le mal aigu des montagnes ;
-en situation élective : pour l'aide à la cicatrisation des plaies difficiles (ex. : ulcère diabétique, plaies post opératoires), lésions tissulaires après une radiothérapie (vessie, intestins, mâchoire, sein, etc.), lors d'infections de l'os (ostéomyélite), d'infection nécrosante des tissus mous (gangrène, syndrome de Fournier[2]), surdité brusque.
+en situation d'urgence : accident de plongée sous-marine (ou maladie de décompression), intoxication au monoxyde de carbone (CO), embolie gazeuse ; syndrome d'écrasement (crush injury) ; il peut aussi être utilisé pour traiter le mal aigu des montagnes ;
+en situation élective : pour l'aide à la cicatrisation des plaies difficiles (ex. : ulcère diabétique, plaies post opératoires), lésions tissulaires après une radiothérapie (vessie, intestins, mâchoire, sein, etc.), lors d'infections de l'os (ostéomyélite), d'infection nécrosante des tissus mous (gangrène, syndrome de Fournier), surdité brusque.
 Dans la plupart des centres hyperbares en Europe, les patients en situation élective représentent de 60 à 95 % des bénéficiaires. Les caissons peuvent aussi être utilisés pour des plongeurs professionnels, notamment lors de plongées en saturation (caisson mobile, caisson sur plate-forme)
 Le caisson de recompression typique est un caisson en acier — souvent sous forme de cylindre ou en forme d'oméga — pouvant contenir des pressions internes de  200 à 900 kilopascals (9 bars) voire  plus, selon les besoins spécifiques. La grande majorité des traitements hyperbares pour des patients en situation élective se font entre 1,5 et 2,0 bars de pression par rapport à l'extérieur.
 </t>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces caissons sont régulièrement utilisés par les services de médecine et thérapie hyperbare dans des hôpitaux civils, militaires, grosse structure de plongée, chez les plongeurs professionnels, etc.. Pour les hôpitaux, ceux-ci sont souvent rattachés aux services d'urgences, d'anesthésie ou de soins intensifs.
 Leur taille permet à certains d'être transportables en camion ou également en bateau, par exemple;  lors de travaux sous-marins sur des plates-formes. Les plus petits ne peuvent transporter que le malade, mais plus fréquemment, les caissons permettent  d'accueillir plusieurs  personnes en même temps, d'une à plusieurs dizaines de personnes (certains peuvent accueillir simultanément une vingtaine de personnes dans la même enceinte) cela est très variable d'un centre à un autre.
@@ -592,7 +608,9 @@
           <t>Mesures de sécurité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la plupart des centres hyperbares d'Europe, des normes sévères sont en place concernant les objets autorisés dans l'enceinte. Par mesure de sécurité, aucun appareil électrique ni électronique non identifié comme matériel hyperbare n'est accepté. Le danger le plus grand dans un caisson étant le feu, il en va de même pour tous les objets pouvant produire une étincelle ou tous les objets étanches à l'air (Tupperware ou autres) .
 La législation européenne dit qu'il ne doit pas y avoir plus de 23,5 % d'oxygène dans l'enceinte du caisson hyperbare (Ceci alors, que les patients en traitement à l'intérieur de la chambre respirent souvent de l'oxygène pur).
@@ -629,9 +647,11 @@
           <t>Caissons « domestiques »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe des caissons de petite taille permettant de mettre une seule personne à l'intérieur, utilisés notamment dans le cas de mal aigu des montagnes. Ceux-ci ne sont pas des caissons hyperbares, à proprement parler, sont en vente libre, et ne distribuent pas de médicaments. Leur pression maximale est en général relativement plus faible, elle est  souvent générée par une pompe type pompe à vélo. Il est aussi possible de trouver des mini caissons domestiques, (voir dans les  pays anglo-saxons[pas clair]) il s'agit de caisson avec une structure non rigide, souples, gonflables, et qui peuvent même dans certains cas, distribuer de l'oxygène, ces derniers rencontrent un certain succès chez les parents d'enfants autistes (thérapie non reconnue par la grande majorité de la communauté médicale[3]) car il semblerait que ces enfants se sentent beaucoup mieux après des séances de caisson hyperbare[4]. Cependant, selon la FDA, l'oxygénothérapie hyperbare (HBOT) n'a pas été cliniquement prouvé pour guérir ou être efficace dans le traitement du cancer, l'autisme, ou le diabète[5] et elle met spécialement en garde contre son utilisation pour l'autisme[6]. Il est important de rappeler que comme pour tout traitement hyperbare (peu importe le type d'installation) il faut prendre l'avis d'un médecin spécialisé et formé en hyperbarie (formation post grade) ; lors de cette visite le médecin pourra poser un diagnostic et surtout délivrer un avis de non contre-indication au traitement hyperbare (l'oxygène, ainsi que les différents autres gaz dérivés, sont considérés comme des médicaments, avec des effets bénéfiques visés, mais également avec quelques rares effets secondaires, raison pour laquelle tout traitement doit être fait sous la supervision d'un médecin hyperbare).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des caissons de petite taille permettant de mettre une seule personne à l'intérieur, utilisés notamment dans le cas de mal aigu des montagnes. Ceux-ci ne sont pas des caissons hyperbares, à proprement parler, sont en vente libre, et ne distribuent pas de médicaments. Leur pression maximale est en général relativement plus faible, elle est  souvent générée par une pompe type pompe à vélo. Il est aussi possible de trouver des mini caissons domestiques, (voir dans les  pays anglo-saxons[pas clair]) il s'agit de caisson avec une structure non rigide, souples, gonflables, et qui peuvent même dans certains cas, distribuer de l'oxygène, ces derniers rencontrent un certain succès chez les parents d'enfants autistes (thérapie non reconnue par la grande majorité de la communauté médicale) car il semblerait que ces enfants se sentent beaucoup mieux après des séances de caisson hyperbare. Cependant, selon la FDA, l'oxygénothérapie hyperbare (HBOT) n'a pas été cliniquement prouvé pour guérir ou être efficace dans le traitement du cancer, l'autisme, ou le diabète et elle met spécialement en garde contre son utilisation pour l'autisme. Il est important de rappeler que comme pour tout traitement hyperbare (peu importe le type d'installation) il faut prendre l'avis d'un médecin spécialisé et formé en hyperbarie (formation post grade) ; lors de cette visite le médecin pourra poser un diagnostic et surtout délivrer un avis de non contre-indication au traitement hyperbare (l'oxygène, ainsi que les différents autres gaz dérivés, sont considérés comme des médicaments, avec des effets bénéfiques visés, mais également avec quelques rares effets secondaires, raison pour laquelle tout traitement doit être fait sous la supervision d'un médecin hyperbare).
 </t>
         </is>
       </c>
@@ -660,9 +680,11 @@
           <t>Usage militaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de la marine espagnole, les patrouilleurs hauturiers de classe Meteoro comporteront des futurs bâtiment base de plongeur équipés de caisson hyperbare[7]. Il est présent dans le navire Alizé, en service dans la marine national[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de la marine espagnole, les patrouilleurs hauturiers de classe Meteoro comporteront des futurs bâtiment base de plongeur équipés de caisson hyperbare. Il est présent dans le navire Alizé, en service dans la marine national.
 </t>
         </is>
       </c>
